--- a/src/main/resources/scientic_paper_teamplate.xlsx
+++ b/src/main/resources/scientic_paper_teamplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6830"/>
+    <workbookView windowWidth="19200" windowHeight="6380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>List paper import</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>scient</t>
-  </si>
-  <si>
-    <t>author</t>
   </si>
 </sst>
 </file>
@@ -999,7 +993,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1027,17 +1021,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="5" spans="2:4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
